--- a/qalegend/src/main/resources/Data/Logindata.xlsx
+++ b/qalegend/src/main/resources/Data/Logindata.xlsx
@@ -1,24 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arath\eclipse-workspace\qalegend\src\main\resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arath\git\qalegend\qalegend\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C5E7B6-239F-4054-82D7-AF93B6515FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A56F94-DA2A-4031-8AA6-6C717897A664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="23" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="invalidlogin" sheetId="1" r:id="rId1"/>
-    <sheet name="validlogin" sheetId="2" r:id="rId2"/>
-    <sheet name="usercreation" sheetId="3" r:id="rId3"/>
-    <sheet name="existingusername" sheetId="4" r:id="rId4"/>
-    <sheet name="searchuser" sheetId="5" r:id="rId5"/>
-    <sheet name="viewUser" sheetId="6" r:id="rId6"/>
+    <sheet name="verifyBalance" sheetId="25" r:id="rId2"/>
+    <sheet name="balanceAfterDeposit" sheetId="26" r:id="rId3"/>
+    <sheet name="deleteCloseAccount" sheetId="29" r:id="rId4"/>
+    <sheet name="searchRole" sheetId="31" r:id="rId5"/>
+    <sheet name="closeAccountDisplay" sheetId="30" r:id="rId6"/>
+    <sheet name="cancelCloseAccount" sheetId="28" r:id="rId7"/>
+    <sheet name="editAccount" sheetId="27" r:id="rId8"/>
+    <sheet name="validlogin" sheetId="2" r:id="rId9"/>
+    <sheet name="usercreation" sheetId="3" r:id="rId10"/>
+    <sheet name="editUser" sheetId="9" r:id="rId11"/>
+    <sheet name="inactiveUser" sheetId="10" r:id="rId12"/>
+    <sheet name="invalidTaxRateField" sheetId="13" r:id="rId13"/>
+    <sheet name="editTaxRate" sheetId="14" r:id="rId14"/>
+    <sheet name="addTaxGroup" sheetId="16" r:id="rId15"/>
+    <sheet name="updateRole" sheetId="19" r:id="rId16"/>
+    <sheet name="cancelRoleDelete" sheetId="20" r:id="rId17"/>
+    <sheet name="acceptRoleDelete" sheetId="21" r:id="rId18"/>
+    <sheet name="accountCreation" sheetId="22" r:id="rId19"/>
+    <sheet name="FundTransfer" sheetId="24" r:id="rId20"/>
+    <sheet name="addRole" sheetId="18" r:id="rId21"/>
+    <sheet name="testcase17" sheetId="17" r:id="rId22"/>
+    <sheet name="deleteTaxRate" sheetId="15" r:id="rId23"/>
+    <sheet name="invalidTaxRate" sheetId="12" r:id="rId24"/>
+    <sheet name="taxRateCreation" sheetId="11" r:id="rId25"/>
+    <sheet name="cancelDeleteUser" sheetId="7" r:id="rId26"/>
+    <sheet name="acceptDeleteReq" sheetId="8" r:id="rId27"/>
+    <sheet name="existingusername" sheetId="4" r:id="rId28"/>
+    <sheet name="searchuser" sheetId="5" r:id="rId29"/>
+    <sheet name="viewUser" sheetId="6" r:id="rId30"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="72">
   <si>
     <t>uname</t>
   </si>
@@ -74,24 +98,12 @@
     <t>bala123</t>
   </si>
   <si>
-    <t>bala12@gmail.com</t>
-  </si>
-  <si>
     <t>loginuser</t>
   </si>
   <si>
     <t>loginpassword</t>
   </si>
   <si>
-    <t>Meghna</t>
-  </si>
-  <si>
-    <t>meghnaprakash123@gmail.com</t>
-  </si>
-  <si>
-    <t>meghanaprakash1234</t>
-  </si>
-  <si>
     <t>login_pasword</t>
   </si>
   <si>
@@ -108,13 +120,163 @@
   </si>
   <si>
     <t>raddy64321</t>
+  </si>
+  <si>
+    <t>george8894</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>new_login</t>
+  </si>
+  <si>
+    <t>new_pwd</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>taxRate</t>
+  </si>
+  <si>
+    <t>ValueAddedTax</t>
+  </si>
+  <si>
+    <t>taxcheck</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>cgst-update</t>
+  </si>
+  <si>
+    <t>taxcheckmar</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>sgst</t>
+  </si>
+  <si>
+    <t>cgst</t>
+  </si>
+  <si>
+    <t>subtax1</t>
+  </si>
+  <si>
+    <t>subsubtax2</t>
+  </si>
+  <si>
+    <t>tryoncemore</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>acc_num</t>
+  </si>
+  <si>
+    <t>open_bal</t>
+  </si>
+  <si>
+    <t>TransferTo</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>fund</t>
+  </si>
+  <si>
+    <t>04/04/2023</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>transferFrom</t>
+  </si>
+  <si>
+    <t>depositcheck</t>
+  </si>
+  <si>
+    <t>transfercheck</t>
+  </si>
+  <si>
+    <t>CheckNewProj</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>Unique Close Account</t>
+  </si>
+  <si>
+    <t>zzzzzzzzzzzzzzz</t>
+  </si>
+  <si>
+    <t>ProductionController</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>TestNewAcc</t>
+  </si>
+  <si>
+    <t>15/04/2023</t>
+  </si>
+  <si>
+    <t>16/04/2023</t>
+  </si>
+  <si>
+    <t>OpenAcc</t>
+  </si>
+  <si>
+    <t>TestNewAccEdit</t>
+  </si>
+  <si>
+    <t>CloseTest</t>
+  </si>
+  <si>
+    <t>SupervisorManager</t>
+  </si>
+  <si>
+    <t>ProductionControllerEdit</t>
+  </si>
+  <si>
+    <t>StarCityAccount</t>
+  </si>
+  <si>
+    <t>Sanaya</t>
+  </si>
+  <si>
+    <t>sanaya123@gmail.com</t>
+  </si>
+  <si>
+    <t>SANAYAUSER</t>
+  </si>
+  <si>
+    <t>bala1234@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,16 +292,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -147,14 +321,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF4F4F4"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF4F4F4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF4F4F4"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF4F4F4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -439,7 +633,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,43 +659,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0EA5DB7-94D0-4E6B-B347-4A5511834912}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>123456</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB19E71-2A2C-4BE2-8154-7ECEF2DACE0B}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,10 +677,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -546,16 +709,16 @@
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -575,22 +738,852 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B068E95C-8B4C-43E6-8502-1B841647A513}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E4B139-2F66-4A4A-9989-D642A6DE6005}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{B27D6B19-B741-42A8-AC67-C945EC8AAFCC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D92D09C-A6A3-4DC9-B599-8BF894A874CD}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA166F4-92CE-4FF8-8AD3-132A12A82F36}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405E5D4C-D4EA-4082-AFDB-B0C3CDAAF266}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9B4F9B-EC7D-460F-A3B6-62568C296C0F}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93AFA97-F75A-43AF-BC26-5C93E383654B}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38E7288-6AE3-4041-B060-E51586F9C79E}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E834DB8-88D7-485D-9E44-D08542BCFED2}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2">
+        <v>1122334455</v>
+      </c>
+      <c r="E2">
+        <v>1500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14785DCB-D215-43AD-9F00-A670C9DF8DB8}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2">
+        <v>147854</v>
+      </c>
+      <c r="E2">
+        <v>2000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2">
+        <v>1900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91753DD1-48EE-4B75-B46E-B60973562EF6}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC5171A-93E4-41A0-8672-0B7D0175A9E1}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE35E44-4B1E-463E-A292-39723EFC80F8}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29AA380-3386-4C93-AD70-5F72E2C29D63}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FCBBA0-FC07-4378-9151-22654FCDCA46}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C26DB1-78E5-4D11-A146-A1FA27A29533}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFAEC44-7050-4899-B807-B5E348F90AF6}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27B0842-E8E0-4325-8362-2AAD84BEC5F2}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2">
+        <v>1640</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15352337-4C05-431E-B0D4-802362F84E9B}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -622,7 +1615,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -647,7 +1640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC06CE7-2008-42B3-88B3-C1DB84A316F2}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -659,13 +1652,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -676,19 +1669,80 @@
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9128CB9-FA7D-4888-8A15-BAFCE1EAF991}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2">
+        <v>2200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B39ECD2-D8D8-48F8-8247-F45FB686BADE}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -696,13 +1750,50 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34FE1C2-3CBD-47A2-A55A-FC998FFAC2CA}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -712,8 +1803,203 @@
       <c r="B2">
         <v>123456</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
+      <c r="C2" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E3F4D5-99FA-49EC-8C2F-C75A903ABD10}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7395FD2F-0368-4554-8497-E2B3D8EDC485}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F7D5A5-2856-4E54-A9AC-B6814A99D385}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263708D5-A82B-48E5-A226-2E3A511FF6EC}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0EA5DB7-94D0-4E6B-B347-4A5511834912}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
       </c>
     </row>
   </sheetData>

--- a/qalegend/src/main/resources/Data/Logindata.xlsx
+++ b/qalegend/src/main/resources/Data/Logindata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arath\git\qalegend\qalegend\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A56F94-DA2A-4031-8AA6-6C717897A664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707F109B-1234-4DE6-ACAA-CAD97804B212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="23" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="24" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="invalidlogin" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="70">
   <si>
     <t>uname</t>
   </si>
@@ -116,9 +116,6 @@
     <t>searchvalue</t>
   </si>
   <si>
-    <t>radhika</t>
-  </si>
-  <si>
     <t>raddy64321</t>
   </si>
   <si>
@@ -143,133 +140,130 @@
     <t>taxRate</t>
   </si>
   <si>
+    <t>taxcheck</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>sgst</t>
+  </si>
+  <si>
+    <t>cgst</t>
+  </si>
+  <si>
+    <t>subtax1</t>
+  </si>
+  <si>
+    <t>subsubtax2</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>acc_num</t>
+  </si>
+  <si>
+    <t>open_bal</t>
+  </si>
+  <si>
+    <t>TransferTo</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>04/04/2023</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>transferFrom</t>
+  </si>
+  <si>
+    <t>depositcheck</t>
+  </si>
+  <si>
+    <t>transfercheck</t>
+  </si>
+  <si>
+    <t>CheckNewProj</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>Unique Close Account</t>
+  </si>
+  <si>
+    <t>zzzzzzzzzzzzzzz</t>
+  </si>
+  <si>
+    <t>ProductionController</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>15/04/2023</t>
+  </si>
+  <si>
+    <t>ProductionControllerEdit</t>
+  </si>
+  <si>
+    <t>bala1234@gmail.com</t>
+  </si>
+  <si>
+    <t>TestTestManager</t>
+  </si>
+  <si>
+    <t>NewJio</t>
+  </si>
+  <si>
+    <t>Trends</t>
+  </si>
+  <si>
+    <t>Reliance</t>
+  </si>
+  <si>
+    <t>05/11/2022</t>
+  </si>
+  <si>
+    <t>Oberon</t>
+  </si>
+  <si>
     <t>ValueAddedTax</t>
   </si>
   <si>
-    <t>taxcheck</t>
-  </si>
-  <si>
-    <t>search</t>
-  </si>
-  <si>
-    <t>cgst-update</t>
-  </si>
-  <si>
-    <t>taxcheckmar</t>
-  </si>
-  <si>
     <t>delete</t>
   </si>
   <si>
-    <t>sgst</t>
-  </si>
-  <si>
-    <t>cgst</t>
-  </si>
-  <si>
-    <t>subtax1</t>
-  </si>
-  <si>
-    <t>subsubtax2</t>
-  </si>
-  <si>
-    <t>tryoncemore</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>acc_num</t>
-  </si>
-  <si>
-    <t>open_bal</t>
-  </si>
-  <si>
-    <t>TransferTo</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>fund</t>
-  </si>
-  <si>
-    <t>04/04/2023</t>
-  </si>
-  <si>
-    <t>balance</t>
-  </si>
-  <si>
-    <t>transferFrom</t>
-  </si>
-  <si>
-    <t>depositcheck</t>
-  </si>
-  <si>
-    <t>transfercheck</t>
-  </si>
-  <si>
-    <t>CheckNewProj</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>Unique Close Account</t>
-  </si>
-  <si>
-    <t>zzzzzzzzzzzzzzz</t>
-  </si>
-  <si>
-    <t>ProductionController</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>ss</t>
-  </si>
-  <si>
-    <t>TestNewAcc</t>
-  </si>
-  <si>
-    <t>15/04/2023</t>
-  </si>
-  <si>
-    <t>16/04/2023</t>
-  </si>
-  <si>
-    <t>OpenAcc</t>
-  </si>
-  <si>
-    <t>TestNewAccEdit</t>
-  </si>
-  <si>
-    <t>CloseTest</t>
-  </si>
-  <si>
-    <t>SupervisorManager</t>
-  </si>
-  <si>
-    <t>ProductionControllerEdit</t>
-  </si>
-  <si>
-    <t>StarCityAccount</t>
-  </si>
-  <si>
-    <t>Sanaya</t>
-  </si>
-  <si>
-    <t>sanaya123@gmail.com</t>
-  </si>
-  <si>
-    <t>SANAYAUSER</t>
-  </si>
-  <si>
-    <t>bala1234@gmail.com</t>
+    <t>Zana123</t>
+  </si>
+  <si>
+    <t>ValeAddedTax</t>
+  </si>
+  <si>
+    <t>GirlEducation1</t>
+  </si>
+  <si>
+    <t>195edit</t>
+  </si>
+  <si>
+    <t>Intnl12</t>
+  </si>
+  <si>
+    <t>FirstCry1</t>
+  </si>
+  <si>
+    <t>GreatMana12</t>
+  </si>
+  <si>
+    <t>NewTaxRegime</t>
   </si>
 </sst>
 </file>
@@ -633,7 +627,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,21 +655,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB19E71-2A2C-4BE2-8154-7ECEF2DACE0B}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -683,58 +671,23 @@
         <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>123456</v>
-      </c>
-      <c r="C2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{9299B321-CA8B-4841-8C60-B179428E0147}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{92FF5BE8-13A8-4CF3-B2A6-D721A31899C0}"/>
-    <hyperlink ref="H2" r:id="rId3" xr:uid="{FAE94B4C-5CC9-4C4E-97B0-7C176CEE07BD}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -743,7 +696,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,7 +715,7 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -773,10 +726,10 @@
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -789,7 +742,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -808,11 +761,11 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -822,10 +775,10 @@
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
@@ -844,7 +797,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -857,21 +810,21 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>123456</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -884,7 +837,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -897,14 +850,14 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -913,11 +866,11 @@
       <c r="B2">
         <v>123456</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
+      <c r="C2" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E2">
         <v>33</v>
@@ -925,6 +878,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -933,7 +887,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -946,13 +900,13 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -963,13 +917,13 @@
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -982,7 +936,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -999,10 +953,10 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1013,10 +967,10 @@
         <v>123456</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +997,7 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1054,7 +1008,7 @@
         <v>123456</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1080,7 +1034,7 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1091,7 +1045,7 @@
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1104,7 +1058,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1122,13 +1076,13 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1139,13 +1093,13 @@
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D2">
-        <v>1122334455</v>
+        <v>141574157</v>
       </c>
       <c r="E2">
-        <v>1500</v>
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
@@ -1158,7 +1112,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1174,29 +1128,29 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1206,25 +1160,25 @@
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D2">
-        <v>147854</v>
+        <v>22447788</v>
       </c>
       <c r="E2">
         <v>2000</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H2">
         <v>100</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J2">
         <v>1900</v>
@@ -1240,7 +1194,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1257,16 +1211,16 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1277,16 +1231,16 @@
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1299,7 +1253,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1312,7 +1266,7 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1323,7 +1277,7 @@
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1349,18 +1303,18 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>123456</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1373,7 +1327,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1386,7 +1340,7 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1397,7 +1351,7 @@
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1423,10 +1377,10 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1450,7 +1404,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1466,11 +1420,11 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1480,7 +1434,7 @@
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -1496,7 +1450,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1520,7 +1474,7 @@
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1532,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27B0842-E8E0-4325-8362-2AAD84BEC5F2}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1549,7 +1503,7 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1560,7 +1514,7 @@
         <v>123456</v>
       </c>
       <c r="C2">
-        <v>1640</v>
+        <v>1906</v>
       </c>
     </row>
   </sheetData>
@@ -1615,7 +1569,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1645,7 +1599,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1669,7 +1623,7 @@
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1682,7 +1636,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1695,19 +1649,19 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1718,19 +1672,19 @@
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G2">
-        <v>2200</v>
+        <v>2700</v>
       </c>
     </row>
   </sheetData>
@@ -1742,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B39ECD2-D8D8-48F8-8247-F45FB686BADE}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1767,7 +1721,7 @@
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1793,7 +1747,7 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1803,8 +1757,8 @@
       <c r="B2">
         <v>123456</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>64</v>
+      <c r="C2" s="3">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1830,7 +1784,7 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1841,7 +1795,7 @@
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1867,10 +1821,10 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1881,10 +1835,10 @@
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1897,7 +1851,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1910,7 +1864,7 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1921,7 +1875,7 @@
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1934,7 +1888,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1950,10 +1904,10 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1963,11 +1917,11 @@
       <c r="B2">
         <v>123456</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>59</v>
+      <c r="C2" s="3">
+        <v>195</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/qalegend/src/main/resources/Data/Logindata.xlsx
+++ b/qalegend/src/main/resources/Data/Logindata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arath\git\qalegend\qalegend\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707F109B-1234-4DE6-ACAA-CAD97804B212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3843A3-0E7E-464F-B28E-4884C9A66419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="24" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -209,18 +209,12 @@
     <t>manager</t>
   </si>
   <si>
-    <t>15/04/2023</t>
-  </si>
-  <si>
     <t>ProductionControllerEdit</t>
   </si>
   <si>
     <t>bala1234@gmail.com</t>
   </si>
   <si>
-    <t>TestTestManager</t>
-  </si>
-  <si>
     <t>NewJio</t>
   </si>
   <si>
@@ -230,9 +224,6 @@
     <t>Reliance</t>
   </si>
   <si>
-    <t>05/11/2022</t>
-  </si>
-  <si>
     <t>Oberon</t>
   </si>
   <si>
@@ -245,25 +236,34 @@
     <t>Zana123</t>
   </si>
   <si>
-    <t>ValeAddedTax</t>
-  </si>
-  <si>
-    <t>GirlEducation1</t>
-  </si>
-  <si>
     <t>195edit</t>
   </si>
   <si>
-    <t>Intnl12</t>
-  </si>
-  <si>
-    <t>FirstCry1</t>
-  </si>
-  <si>
-    <t>GreatMana12</t>
-  </si>
-  <si>
-    <t>NewTaxRegime</t>
+    <t>ChildMarriage</t>
+  </si>
+  <si>
+    <t>06/11/2023</t>
+  </si>
+  <si>
+    <t>ValueAddedTaxEdit</t>
+  </si>
+  <si>
+    <t>WidowReMarriage</t>
+  </si>
+  <si>
+    <t>taxRateNewindia1100</t>
+  </si>
+  <si>
+    <t>procurement</t>
+  </si>
+  <si>
+    <t>FirstCry2000</t>
+  </si>
+  <si>
+    <t>CMDClub</t>
+  </si>
+  <si>
+    <t>RegimeTaxIndianew</t>
   </si>
 </sst>
 </file>
@@ -293,7 +293,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,8 +306,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -330,17 +336,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFF4F4F4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF4F4F4"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF4F4F4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -658,7 +680,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,7 +701,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>123456</v>
+        <v>12345</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -723,13 +745,13 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>123456</v>
+        <v>12345</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -742,7 +764,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -772,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>123456</v>
+        <v>12345</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -797,7 +819,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -821,7 +843,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>123456</v>
+        <v>12345</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -837,7 +859,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -864,13 +886,13 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>123456</v>
+        <v>12345</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E2">
         <v>33</v>
@@ -914,10 +936,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>123456</v>
+        <v>12345</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
@@ -936,7 +958,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -964,10 +986,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>123456</v>
+        <v>12345</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>49</v>
@@ -984,7 +1006,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1005,7 +1027,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>123456</v>
+        <v>12345</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>50</v>
@@ -1018,15 +1040,15 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38E7288-6AE3-4041-B060-E51586F9C79E}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1037,19 +1059,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>123456</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>12345</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1058,7 +1082,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1090,7 +1114,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>123456</v>
+        <v>12345</v>
       </c>
       <c r="C2" t="s">
         <v>67</v>
@@ -1112,7 +1136,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1157,19 +1181,19 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>123456</v>
+        <v>12345</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
       </c>
       <c r="D2">
-        <v>22447788</v>
+        <v>159159478</v>
       </c>
       <c r="E2">
         <v>2000</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
         <v>45</v>
@@ -1178,7 +1202,7 @@
         <v>100</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J2">
         <v>1900</v>
@@ -1194,7 +1218,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1228,19 +1252,19 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>123456</v>
+        <v>12345</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1274,7 +1298,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>123456</v>
+        <v>12345</v>
       </c>
       <c r="C2" t="s">
         <v>68</v>
@@ -1290,7 +1314,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1311,7 +1335,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>123456</v>
+        <v>12345</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -1327,7 +1351,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1348,10 +1372,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>123456</v>
+        <v>12345</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1364,7 +1388,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1388,7 +1412,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>123456</v>
+        <v>12345</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -1431,7 +1455,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>123456</v>
+        <v>12345</v>
       </c>
       <c r="C2" t="s">
         <v>69</v>
@@ -1450,7 +1474,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1471,7 +1495,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>123456</v>
+        <v>12345</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -1487,7 +1511,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1511,10 +1535,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>123456</v>
+        <v>12345</v>
       </c>
       <c r="C2">
-        <v>1906</v>
+        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -1527,7 +1551,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1563,13 +1587,13 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>123456</v>
+        <v>12345</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1599,7 +1623,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1620,10 +1644,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>123456</v>
+        <v>12345</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1669,7 +1693,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>123456</v>
+        <v>12345</v>
       </c>
       <c r="C2" t="s">
         <v>43</v>
@@ -1684,7 +1708,7 @@
         <v>40</v>
       </c>
       <c r="G2">
-        <v>2700</v>
+        <v>3100</v>
       </c>
     </row>
   </sheetData>
@@ -1697,7 +1721,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1718,7 +1742,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>123456</v>
+        <v>12345</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -1755,10 +1779,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>123456</v>
+        <v>12345</v>
       </c>
       <c r="C2" s="3">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1771,7 +1795,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1792,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>123456</v>
+        <v>12345</v>
       </c>
       <c r="C2" t="s">
         <v>48</v>
@@ -1808,7 +1832,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1832,10 +1856,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>123456</v>
+        <v>12345</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
         <v>47</v>
@@ -1851,7 +1875,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1872,10 +1896,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>123456</v>
+        <v>12345</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1888,7 +1912,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1915,13 +1939,13 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>123456</v>
+        <v>12345</v>
       </c>
       <c r="C2" s="3">
         <v>195</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1935,7 +1959,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1953,7 +1977,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>123456</v>
+        <v>12345</v>
       </c>
     </row>
   </sheetData>

--- a/qalegend/src/main/resources/Data/Logindata.xlsx
+++ b/qalegend/src/main/resources/Data/Logindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arath\git\qalegend\qalegend\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3843A3-0E7E-464F-B28E-4884C9A66419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DAC47A-5F6B-4EF9-AFA2-670E22367150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="24" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="invalidlogin" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="69">
   <si>
     <t>uname</t>
   </si>
@@ -237,9 +237,6 @@
   </si>
   <si>
     <t>195edit</t>
-  </si>
-  <si>
-    <t>ChildMarriage</t>
   </si>
   <si>
     <t>06/11/2023</t>
@@ -648,7 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -667,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -701,7 +698,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12345</v>
+        <v>123123</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -718,7 +715,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -745,7 +742,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12345</v>
+        <v>123123</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -794,7 +791,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12345</v>
+        <v>123123</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -843,7 +840,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12345</v>
+        <v>123123</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -859,7 +856,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -886,10 +883,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12345</v>
+        <v>123123</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
         <v>57</v>
@@ -909,7 +906,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,10 +933,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12345</v>
+        <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
@@ -958,7 +955,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -986,7 +983,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12345</v>
+        <v>123123</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>51</v>
@@ -1027,7 +1024,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12345</v>
+        <v>123123</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>50</v>
@@ -1043,7 +1040,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1064,10 +1061,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12345</v>
+        <v>123123</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="5"/>
     </row>
@@ -1082,7 +1079,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1114,10 +1111,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12345</v>
+        <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2">
         <v>141574157</v>
@@ -1136,7 +1133,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1181,10 +1178,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12345</v>
+        <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2">
         <v>159159478</v>
@@ -1193,7 +1190,7 @@
         <v>2000</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
         <v>45</v>
@@ -1202,7 +1199,7 @@
         <v>100</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2">
         <v>1900</v>
@@ -1252,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12345</v>
+        <v>123123</v>
       </c>
       <c r="C2" t="s">
         <v>54</v>
@@ -1264,7 +1261,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1277,7 +1274,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1298,10 +1295,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12345</v>
+        <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1335,7 +1332,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12345</v>
+        <v>123123</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -1372,7 +1369,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12345</v>
+        <v>123123</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
@@ -1412,7 +1409,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12345</v>
+        <v>123123</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -1428,7 +1425,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1455,10 +1452,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12345</v>
+        <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -1495,7 +1492,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12345</v>
+        <v>123123</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -1511,7 +1508,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1535,7 +1532,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12345</v>
+        <v>123123</v>
       </c>
       <c r="C2">
         <v>2282</v>
@@ -1587,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12345</v>
+        <v>123123</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -1644,7 +1641,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12345</v>
+        <v>123123</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -1660,7 +1657,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1693,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12345</v>
+        <v>123123</v>
       </c>
       <c r="C2" t="s">
         <v>43</v>
@@ -1720,7 +1717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B39ECD2-D8D8-48F8-8247-F45FB686BADE}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1742,7 +1739,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12345</v>
+        <v>123123</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -1758,7 +1755,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1779,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12345</v>
+        <v>123123</v>
       </c>
       <c r="C2" s="3">
         <v>173</v>
@@ -1816,7 +1813,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12345</v>
+        <v>123123</v>
       </c>
       <c r="C2" t="s">
         <v>48</v>
@@ -1856,7 +1853,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12345</v>
+        <v>123123</v>
       </c>
       <c r="C2" t="s">
         <v>56</v>
@@ -1896,7 +1893,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12345</v>
+        <v>123123</v>
       </c>
       <c r="C2" t="s">
         <v>53</v>
@@ -1912,7 +1909,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1939,7 +1936,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12345</v>
+        <v>123123</v>
       </c>
       <c r="C2" s="3">
         <v>195</v>
@@ -1959,7 +1956,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1977,7 +1974,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>12345</v>
+        <v>123123</v>
       </c>
     </row>
   </sheetData>

--- a/qalegend/src/main/resources/Data/Logindata.xlsx
+++ b/qalegend/src/main/resources/Data/Logindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arath\git\qalegend\qalegend\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DAC47A-5F6B-4EF9-AFA2-670E22367150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96277DA-050C-43EA-BB86-3CE6C77269A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="24" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="invalidlogin" sheetId="1" r:id="rId1"/>
@@ -245,22 +245,22 @@
     <t>ValueAddedTaxEdit</t>
   </si>
   <si>
-    <t>WidowReMarriage</t>
-  </si>
-  <si>
-    <t>taxRateNewindia1100</t>
-  </si>
-  <si>
-    <t>procurement</t>
-  </si>
-  <si>
-    <t>FirstCry2000</t>
-  </si>
-  <si>
-    <t>CMDClub</t>
-  </si>
-  <si>
-    <t>RegimeTaxIndianew</t>
+    <t>FloodRelief</t>
+  </si>
+  <si>
+    <t>floodeqtax</t>
+  </si>
+  <si>
+    <t>QA testing 3</t>
+  </si>
+  <si>
+    <t>FC847</t>
+  </si>
+  <si>
+    <t>CMDROClub</t>
+  </si>
+  <si>
+    <t>STFITax</t>
   </si>
 </sst>
 </file>
@@ -645,7 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -856,7 +856,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -886,10 +886,10 @@
         <v>123123</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
         <v>62</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
       </c>
       <c r="E2">
         <v>33</v>
@@ -906,7 +906,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -955,7 +955,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -986,10 +986,10 @@
         <v>123123</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1040,7 +1040,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K18" activeCellId="1" sqref="C2 K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1274,7 +1274,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1425,7 +1425,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1508,7 +1508,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1535,7 +1535,7 @@
         <v>123123</v>
       </c>
       <c r="C2">
-        <v>2282</v>
+        <v>2283</v>
       </c>
     </row>
   </sheetData>
@@ -1657,7 +1657,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1705,7 +1705,7 @@
         <v>40</v>
       </c>
       <c r="G2">
-        <v>3100</v>
+        <v>3200</v>
       </c>
     </row>
   </sheetData>
@@ -1717,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B39ECD2-D8D8-48F8-8247-F45FB686BADE}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1755,7 +1755,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1779,7 +1779,7 @@
         <v>123123</v>
       </c>
       <c r="C2" s="3">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1909,7 +1909,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1938,11 +1938,11 @@
       <c r="B2">
         <v>123123</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="3">
         <v>195</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/qalegend/src/main/resources/Data/Logindata.xlsx
+++ b/qalegend/src/main/resources/Data/Logindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arath\git\qalegend\qalegend\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96277DA-050C-43EA-BB86-3CE6C77269A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDCC6F9-7AF8-451C-8A92-CCBB384118FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="24" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="invalidlogin" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="68">
   <si>
     <t>uname</t>
   </si>
@@ -245,22 +245,19 @@
     <t>ValueAddedTaxEdit</t>
   </si>
   <si>
-    <t>FloodRelief</t>
-  </si>
-  <si>
-    <t>floodeqtax</t>
-  </si>
-  <si>
-    <t>QA testing 3</t>
-  </si>
-  <si>
-    <t>FC847</t>
-  </si>
-  <si>
-    <t>CMDROClub</t>
-  </si>
-  <si>
-    <t>STFITax</t>
+    <t>STFIEQTax</t>
+  </si>
+  <si>
+    <t>KLNIACMD</t>
+  </si>
+  <si>
+    <t>Influence</t>
+  </si>
+  <si>
+    <t>CMDClub</t>
+  </si>
+  <si>
+    <t>Floodpart2</t>
   </si>
 </sst>
 </file>
@@ -645,7 +642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -856,7 +853,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -885,11 +882,11 @@
       <c r="B2">
         <v>123123</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
         <v>57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>62</v>
       </c>
       <c r="E2">
         <v>33</v>
@@ -936,7 +933,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
@@ -955,7 +952,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -986,10 +983,10 @@
         <v>123123</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1064,7 +1061,7 @@
         <v>123123</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2" s="5"/>
     </row>
@@ -1079,7 +1076,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" activeCellId="1" sqref="C2 K18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1114,7 +1111,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2">
         <v>141574157</v>
@@ -1181,7 +1178,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D2">
         <v>159159478</v>
@@ -1190,7 +1187,7 @@
         <v>2000</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
         <v>45</v>
@@ -1274,7 +1271,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1298,7 +1295,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1425,7 +1422,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1455,7 +1452,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -1535,7 +1532,7 @@
         <v>123123</v>
       </c>
       <c r="C2">
-        <v>2283</v>
+        <v>2308</v>
       </c>
     </row>
   </sheetData>
@@ -1657,7 +1654,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1705,7 +1702,7 @@
         <v>40</v>
       </c>
       <c r="G2">
-        <v>3200</v>
+        <v>3400</v>
       </c>
     </row>
   </sheetData>
@@ -1717,7 +1714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B39ECD2-D8D8-48F8-8247-F45FB686BADE}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
@@ -1755,7 +1752,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1779,7 +1776,7 @@
         <v>123123</v>
       </c>
       <c r="C2" s="3">
-        <v>174</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1938,11 +1935,11 @@
       <c r="B2">
         <v>123123</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="3">
+        <v>195</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="D2" s="3">
-        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/qalegend/src/main/resources/Data/Logindata.xlsx
+++ b/qalegend/src/main/resources/Data/Logindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arath\git\qalegend\qalegend\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDCC6F9-7AF8-451C-8A92-CCBB384118FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07566ED0-A9AE-47FA-B530-0BB6DE27D8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="invalidlogin" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="69">
   <si>
     <t>uname</t>
   </si>
@@ -185,9 +185,6 @@
     <t>transferFrom</t>
   </si>
   <si>
-    <t>depositcheck</t>
-  </si>
-  <si>
     <t>transfercheck</t>
   </si>
   <si>
@@ -245,19 +242,25 @@
     <t>ValueAddedTaxEdit</t>
   </si>
   <si>
-    <t>STFIEQTax</t>
-  </si>
-  <si>
-    <t>KLNIACMD</t>
-  </si>
-  <si>
-    <t>Influence</t>
-  </si>
-  <si>
-    <t>CMDClub</t>
-  </si>
-  <si>
-    <t>Floodpart2</t>
+    <t>DepositBal</t>
+  </si>
+  <si>
+    <t>Mercykilling</t>
+  </si>
+  <si>
+    <t>CycloneKerala</t>
+  </si>
+  <si>
+    <t>GreatMana12</t>
+  </si>
+  <si>
+    <t>Influence11</t>
+  </si>
+  <si>
+    <t>BusinessDevExec</t>
+  </si>
+  <si>
+    <t>Cycloneguj</t>
   </si>
 </sst>
 </file>
@@ -642,7 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -853,7 +856,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -883,10 +886,10 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E2">
         <v>33</v>
@@ -903,7 +906,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -933,7 +936,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
@@ -952,7 +955,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -983,10 +986,10 @@
         <v>123123</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +1027,7 @@
         <v>123123</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1061,7 +1064,7 @@
         <v>123123</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="5"/>
     </row>
@@ -1111,7 +1114,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2">
         <v>141574157</v>
@@ -1130,7 +1133,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1178,7 +1181,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D2">
         <v>159159478</v>
@@ -1187,16 +1190,16 @@
         <v>2000</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2">
         <v>100</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J2">
         <v>1900</v>
@@ -1249,16 +1252,16 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1271,7 +1274,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1295,7 +1298,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1369,7 +1372,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1422,7 +1425,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1452,7 +1455,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -1532,7 +1535,7 @@
         <v>123123</v>
       </c>
       <c r="C2">
-        <v>2308</v>
+        <v>2267</v>
       </c>
     </row>
   </sheetData>
@@ -1587,7 +1590,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1641,7 +1644,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1653,7 +1656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9128CB9-FA7D-4888-8A15-BAFCE1EAF991}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1690,19 +1693,19 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G2">
-        <v>3400</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -1776,7 +1779,7 @@
         <v>123123</v>
       </c>
       <c r="C2" s="3">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -1813,7 +1816,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1842,21 +1845,21 @@
         <v>29</v>
       </c>
       <c r="D1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>123123</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1893,7 +1896,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1935,11 +1938,11 @@
       <c r="B2">
         <v>123123</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="3">
         <v>195</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/qalegend/src/main/resources/Data/Logindata.xlsx
+++ b/qalegend/src/main/resources/Data/Logindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arath\git\qalegend\qalegend\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07566ED0-A9AE-47FA-B530-0BB6DE27D8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018B56ED-4D5F-4473-8D4F-690A0BDFE8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="24" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="invalidlogin" sheetId="1" r:id="rId1"/>
@@ -245,22 +245,22 @@
     <t>DepositBal</t>
   </si>
   <si>
-    <t>Mercykilling</t>
-  </si>
-  <si>
-    <t>CycloneKerala</t>
-  </si>
-  <si>
-    <t>GreatMana12</t>
-  </si>
-  <si>
-    <t>Influence11</t>
-  </si>
-  <si>
-    <t>BusinessDevExec</t>
-  </si>
-  <si>
-    <t>Cycloneguj</t>
+    <t>Mercykilling12</t>
+  </si>
+  <si>
+    <t>CycloneKerala1</t>
+  </si>
+  <si>
+    <t>delRol</t>
+  </si>
+  <si>
+    <t>Influence112</t>
+  </si>
+  <si>
+    <t>BusinessDevExecBanca</t>
+  </si>
+  <si>
+    <t>RajTax</t>
   </si>
 </sst>
 </file>
@@ -886,10 +886,10 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
         <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
       </c>
       <c r="E2">
         <v>33</v>
@@ -906,7 +906,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -955,7 +955,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -986,10 +986,10 @@
         <v>123123</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1133,7 +1133,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1274,7 +1274,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1535,7 +1535,7 @@
         <v>123123</v>
       </c>
       <c r="C2">
-        <v>2267</v>
+        <v>2320</v>
       </c>
     </row>
   </sheetData>
@@ -1656,7 +1656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9128CB9-FA7D-4888-8A15-BAFCE1EAF991}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1705,7 +1705,7 @@
         <v>40</v>
       </c>
       <c r="G2">
-        <v>2000</v>
+        <v>2100</v>
       </c>
     </row>
   </sheetData>
@@ -1717,7 +1717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B39ECD2-D8D8-48F8-8247-F45FB686BADE}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
@@ -1938,11 +1938,11 @@
       <c r="B2">
         <v>123123</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="3">
+        <v>195</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D2" s="3">
-        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/qalegend/src/main/resources/Data/Logindata.xlsx
+++ b/qalegend/src/main/resources/Data/Logindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arath\git\qalegend\qalegend\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018B56ED-4D5F-4473-8D4F-690A0BDFE8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8357BD72-6EB2-45CE-96A1-17FEAE9FF3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="24" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="invalidlogin" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="70">
   <si>
     <t>uname</t>
   </si>
@@ -245,22 +245,25 @@
     <t>DepositBal</t>
   </si>
   <si>
-    <t>Mercykilling12</t>
-  </si>
-  <si>
-    <t>CycloneKerala1</t>
-  </si>
-  <si>
     <t>delRol</t>
   </si>
   <si>
-    <t>Influence112</t>
-  </si>
-  <si>
-    <t>BusinessDevExecBanca</t>
-  </si>
-  <si>
-    <t>RajTax</t>
+    <t>RajTax1</t>
+  </si>
+  <si>
+    <t>BusinessDevExecAgency</t>
+  </si>
+  <si>
+    <t>Influence500</t>
+  </si>
+  <si>
+    <t> Edit</t>
+  </si>
+  <si>
+    <t>Ktrina1</t>
+  </si>
+  <si>
+    <t>TsunamiReleif2006</t>
   </si>
 </sst>
 </file>
@@ -290,18 +293,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF9F9F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -356,10 +353,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -645,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -886,10 +883,10 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
         <v>61</v>
-      </c>
-      <c r="D2" t="s">
-        <v>56</v>
       </c>
       <c r="E2">
         <v>33</v>
@@ -936,7 +933,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
@@ -952,10 +949,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9B4F9B-EC7D-460F-A3B6-62568C296C0F}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -964,7 +961,7 @@
     <col min="4" max="4" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -978,23 +975,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>123123</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123123</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+      <c r="E2" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="https://qalegend.com/billing/public/roles/701/edit" xr:uid="{882D001C-0127-42B7-9099-19337EFCB8D7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1064,9 +1067,9 @@
         <v>123123</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="D2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1079,7 +1082,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1181,7 +1184,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D2">
         <v>159159478</v>
@@ -1190,7 +1193,7 @@
         <v>2000</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
         <v>44</v>
@@ -1298,7 +1301,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1455,7 +1458,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -1535,7 +1538,7 @@
         <v>123123</v>
       </c>
       <c r="C2">
-        <v>2320</v>
+        <v>2284</v>
       </c>
     </row>
   </sheetData>
@@ -1705,7 +1708,7 @@
         <v>40</v>
       </c>
       <c r="G2">
-        <v>2100</v>
+        <v>2200</v>
       </c>
     </row>
   </sheetData>
@@ -1717,8 +1720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B39ECD2-D8D8-48F8-8247-F45FB686BADE}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1779,7 +1782,7 @@
         <v>123123</v>
       </c>
       <c r="C2" s="3">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -1938,11 +1941,11 @@
       <c r="B2">
         <v>123123</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="3">
         <v>195</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/qalegend/src/main/resources/Data/Logindata.xlsx
+++ b/qalegend/src/main/resources/Data/Logindata.xlsx
@@ -1,48 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arath\git\qalegend\qalegend\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8357BD72-6EB2-45CE-96A1-17FEAE9FF3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911F1C3C-9FD1-4F6F-BE8D-A78B37D071FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="25" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="invalidlogin" sheetId="1" r:id="rId1"/>
-    <sheet name="verifyBalance" sheetId="25" r:id="rId2"/>
-    <sheet name="balanceAfterDeposit" sheetId="26" r:id="rId3"/>
-    <sheet name="deleteCloseAccount" sheetId="29" r:id="rId4"/>
-    <sheet name="searchRole" sheetId="31" r:id="rId5"/>
-    <sheet name="closeAccountDisplay" sheetId="30" r:id="rId6"/>
-    <sheet name="cancelCloseAccount" sheetId="28" r:id="rId7"/>
-    <sheet name="editAccount" sheetId="27" r:id="rId8"/>
-    <sheet name="validlogin" sheetId="2" r:id="rId9"/>
-    <sheet name="usercreation" sheetId="3" r:id="rId10"/>
-    <sheet name="editUser" sheetId="9" r:id="rId11"/>
-    <sheet name="inactiveUser" sheetId="10" r:id="rId12"/>
-    <sheet name="invalidTaxRateField" sheetId="13" r:id="rId13"/>
-    <sheet name="editTaxRate" sheetId="14" r:id="rId14"/>
-    <sheet name="addTaxGroup" sheetId="16" r:id="rId15"/>
-    <sheet name="updateRole" sheetId="19" r:id="rId16"/>
-    <sheet name="cancelRoleDelete" sheetId="20" r:id="rId17"/>
-    <sheet name="acceptRoleDelete" sheetId="21" r:id="rId18"/>
-    <sheet name="accountCreation" sheetId="22" r:id="rId19"/>
-    <sheet name="FundTransfer" sheetId="24" r:id="rId20"/>
-    <sheet name="addRole" sheetId="18" r:id="rId21"/>
-    <sheet name="testcase17" sheetId="17" r:id="rId22"/>
-    <sheet name="deleteTaxRate" sheetId="15" r:id="rId23"/>
-    <sheet name="invalidTaxRate" sheetId="12" r:id="rId24"/>
-    <sheet name="taxRateCreation" sheetId="11" r:id="rId25"/>
-    <sheet name="cancelDeleteUser" sheetId="7" r:id="rId26"/>
-    <sheet name="acceptDeleteReq" sheetId="8" r:id="rId27"/>
-    <sheet name="existingusername" sheetId="4" r:id="rId28"/>
-    <sheet name="searchuser" sheetId="5" r:id="rId29"/>
-    <sheet name="viewUser" sheetId="6" r:id="rId30"/>
+    <sheet name="testCase31" sheetId="32" r:id="rId1"/>
+    <sheet name="invalidlogin" sheetId="1" r:id="rId2"/>
+    <sheet name="verifyBalance" sheetId="25" r:id="rId3"/>
+    <sheet name="balanceAfterDeposit" sheetId="26" r:id="rId4"/>
+    <sheet name="deleteCloseAccount" sheetId="29" r:id="rId5"/>
+    <sheet name="searchRole" sheetId="31" r:id="rId6"/>
+    <sheet name="closeAccountDisplay" sheetId="30" r:id="rId7"/>
+    <sheet name="cancelCloseAccount" sheetId="28" r:id="rId8"/>
+    <sheet name="editAccount" sheetId="27" r:id="rId9"/>
+    <sheet name="validlogin" sheetId="2" r:id="rId10"/>
+    <sheet name="usercreation" sheetId="3" r:id="rId11"/>
+    <sheet name="editUser" sheetId="9" r:id="rId12"/>
+    <sheet name="inactiveUser" sheetId="10" r:id="rId13"/>
+    <sheet name="invalidTaxRateField" sheetId="13" r:id="rId14"/>
+    <sheet name="editTaxRate" sheetId="14" r:id="rId15"/>
+    <sheet name="addTaxGroup" sheetId="16" r:id="rId16"/>
+    <sheet name="updateRole" sheetId="19" r:id="rId17"/>
+    <sheet name="cancelRoleDelete" sheetId="20" r:id="rId18"/>
+    <sheet name="acceptRoleDelete" sheetId="21" r:id="rId19"/>
+    <sheet name="accountCreation" sheetId="22" r:id="rId20"/>
+    <sheet name="FundTransfer" sheetId="24" r:id="rId21"/>
+    <sheet name="addRole" sheetId="18" r:id="rId22"/>
+    <sheet name="testcase17" sheetId="17" r:id="rId23"/>
+    <sheet name="deleteTaxRate" sheetId="15" r:id="rId24"/>
+    <sheet name="invalidTaxRate" sheetId="12" r:id="rId25"/>
+    <sheet name="taxRateCreation" sheetId="11" r:id="rId26"/>
+    <sheet name="cancelDeleteUser" sheetId="7" r:id="rId27"/>
+    <sheet name="acceptDeleteReq" sheetId="8" r:id="rId28"/>
+    <sheet name="existingusername" sheetId="4" r:id="rId29"/>
+    <sheet name="searchuser" sheetId="5" r:id="rId30"/>
+    <sheet name="viewUser" sheetId="6" r:id="rId31"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="73">
   <si>
     <t>uname</t>
   </si>
@@ -248,29 +249,38 @@
     <t>delRol</t>
   </si>
   <si>
-    <t>RajTax1</t>
-  </si>
-  <si>
-    <t>BusinessDevExecAgency</t>
-  </si>
-  <si>
-    <t>Influence500</t>
-  </si>
-  <si>
-    <t> Edit</t>
-  </si>
-  <si>
-    <t>Ktrina1</t>
-  </si>
-  <si>
-    <t>TsunamiReleif2006</t>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>Demo Company (BL0001)</t>
+  </si>
+  <si>
+    <t>DisasterDundCm</t>
+  </si>
+  <si>
+    <t>DeepAli</t>
+  </si>
+  <si>
+    <t>Influence5001</t>
+  </si>
+  <si>
+    <t>BusinessDevExecAgency12</t>
+  </si>
+  <si>
+    <t>RajTax123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +301,12 @@
       <color rgb="FF333333"/>
       <name val="Source Sans Pro"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -348,7 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -359,6 +375,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -639,11 +657,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC12315-CA5A-4EE3-9494-D6637E0FF62E}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123123</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0EA5DB7-94D0-4E6B-B347-4A5511834912}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -661,15 +724,15 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>111</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>123123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB19E71-2A2C-4BE2-8154-7ECEF2DACE0B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -707,7 +770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B068E95C-8B4C-43E6-8502-1B841647A513}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -753,7 +816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E4B139-2F66-4A4A-9989-D642A6DE6005}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -808,7 +871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D92D09C-A6A3-4DC9-B599-8BF894A874CD}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -848,7 +911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA166F4-92CE-4FF8-8AD3-132A12A82F36}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -883,10 +946,10 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
         <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
       </c>
       <c r="E2">
         <v>33</v>
@@ -898,7 +961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405E5D4C-D4EA-4082-AFDB-B0C3CDAAF266}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -933,7 +996,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
@@ -947,12 +1010,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9B4F9B-EC7D-460F-A3B6-62568C296C0F}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -983,25 +1046,20 @@
         <v>123123</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://qalegend.com/billing/public/roles/701/edit" xr:uid="{882D001C-0127-42B7-9099-19337EFCB8D7}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="E2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93AFA97-F75A-43AF-BC26-5C93E383654B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1038,7 +1096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38E7288-6AE3-4041-B060-E51586F9C79E}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1077,7 +1135,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E834DB8-88D7-485D-9E44-D08542BCFED2}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1117,7 +1206,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D2">
         <v>141574157</v>
@@ -1131,89 +1220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14785DCB-D215-43AD-9F00-A670C9DF8DB8}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>123123</v>
-      </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2">
-        <v>159159478</v>
-      </c>
-      <c r="E2">
-        <v>2000</v>
-      </c>
-      <c r="F2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2">
-        <v>1900</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91753DD1-48EE-4B75-B46E-B60973562EF6}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1272,7 +1279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC5171A-93E4-41A0-8672-0B7D0175A9E1}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1301,15 +1308,15 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE35E44-4B1E-463E-A292-39723EFC80F8}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1346,7 +1353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29AA380-3386-4C93-AD70-5F72E2C29D63}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1383,7 +1390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FCBBA0-FC07-4378-9151-22654FCDCA46}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1423,7 +1430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C26DB1-78E5-4D11-A146-A1FA27A29533}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1458,7 +1465,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -1469,7 +1476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFAEC44-7050-4899-B807-B5E348F90AF6}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1506,7 +1513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27B0842-E8E0-4325-8362-2AAD84BEC5F2}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1538,15 +1545,15 @@
         <v>123123</v>
       </c>
       <c r="C2">
-        <v>2284</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>2323</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15352337-4C05-431E-B0D4-802362F84E9B}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1618,7 +1625,89 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14785DCB-D215-43AD-9F00-A670C9DF8DB8}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2">
+        <v>159159478</v>
+      </c>
+      <c r="E2">
+        <v>2000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2">
+        <v>1900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC06CE7-2008-42B3-88B3-C1DB84A316F2}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1655,11 +1744,48 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B39ECD2-D8D8-48F8-8247-F45FB686BADE}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9128CB9-FA7D-4888-8A15-BAFCE1EAF991}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="101" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1708,52 +1834,15 @@
         <v>40</v>
       </c>
       <c r="G2">
-        <v>2200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B39ECD2-D8D8-48F8-8247-F45FB686BADE}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>123123</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>2300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34FE1C2-3CBD-47A2-A55A-FC998FFAC2CA}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1782,15 +1871,15 @@
         <v>123123</v>
       </c>
       <c r="C2" s="3">
-        <v>199</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E3F4D5-99FA-49EC-8C2F-C75A903ABD10}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1827,7 +1916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7395FD2F-0368-4554-8497-E2B3D8EDC485}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1870,7 +1959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F7D5A5-2856-4E54-A9AC-B6814A99D385}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1907,7 +1996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263708D5-A82B-48E5-A226-2E3A511FF6EC}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1941,46 +2030,15 @@
       <c r="B2">
         <v>123123</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="3">
+        <v>195</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="3">
-        <v>195</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0EA5DB7-94D0-4E6B-B347-4A5511834912}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>123123</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/qalegend/src/main/resources/Data/Logindata.xlsx
+++ b/qalegend/src/main/resources/Data/Logindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arath\git\qalegend\qalegend\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911F1C3C-9FD1-4F6F-BE8D-A78B37D071FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CF46CB-4852-41CF-8A51-38C9E72F3933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="25" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="25" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testCase31" sheetId="32" r:id="rId1"/>
@@ -261,19 +261,19 @@
     <t>Demo Company (BL0001)</t>
   </si>
   <si>
-    <t>DisasterDundCm</t>
-  </si>
-  <si>
     <t>DeepAli</t>
   </si>
   <si>
-    <t>Influence5001</t>
-  </si>
-  <si>
-    <t>BusinessDevExecAgency12</t>
-  </si>
-  <si>
     <t>RajTax123</t>
+  </si>
+  <si>
+    <t>CHennaiFllood</t>
+  </si>
+  <si>
+    <t>Influence1241</t>
+  </si>
+  <si>
+    <t>NewBRole</t>
   </si>
 </sst>
 </file>
@@ -916,7 +916,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -946,10 +946,10 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
         <v>61</v>
-      </c>
-      <c r="D2" t="s">
-        <v>56</v>
       </c>
       <c r="E2">
         <v>33</v>
@@ -996,7 +996,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1046,10 +1046,10 @@
         <v>123123</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -1206,7 +1206,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2">
         <v>141574157</v>
@@ -1284,7 +1284,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1308,7 +1308,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1465,7 +1465,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -1517,7 +1517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27B0842-E8E0-4325-8362-2AAD84BEC5F2}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1545,7 +1545,7 @@
         <v>123123</v>
       </c>
       <c r="C2">
-        <v>2323</v>
+        <v>2325</v>
       </c>
     </row>
   </sheetData>
@@ -1630,7 +1630,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1678,7 +1678,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2">
         <v>159159478</v>
@@ -1687,7 +1687,7 @@
         <v>2000</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
         <v>44</v>
@@ -1748,7 +1748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B39ECD2-D8D8-48F8-8247-F45FB686BADE}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -1834,7 +1834,7 @@
         <v>40</v>
       </c>
       <c r="G2">
-        <v>2300</v>
+        <v>2400</v>
       </c>
     </row>
   </sheetData>
@@ -1871,7 +1871,7 @@
         <v>123123</v>
       </c>
       <c r="C2" s="3">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2001,7 +2001,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2030,12 +2030,12 @@
       <c r="B2">
         <v>123123</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="3">
         <v>195</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>59</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/qalegend/src/main/resources/Data/Logindata.xlsx
+++ b/qalegend/src/main/resources/Data/Logindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arath\git\qalegend\qalegend\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CF46CB-4852-41CF-8A51-38C9E72F3933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D8119D-7D1D-41A2-BEC8-EE41CADADEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="25" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="25" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testCase31" sheetId="32" r:id="rId1"/>
@@ -246,9 +246,6 @@
     <t>DepositBal</t>
   </si>
   <si>
-    <t>delRol</t>
-  </si>
-  <si>
     <t>pwd</t>
   </si>
   <si>
@@ -267,13 +264,16 @@
     <t>RajTax123</t>
   </si>
   <si>
-    <t>CHennaiFllood</t>
-  </si>
-  <si>
-    <t>Influence1241</t>
-  </si>
-  <si>
     <t>NewBRole</t>
+  </si>
+  <si>
+    <t>Balance1</t>
+  </si>
+  <si>
+    <t>BusinessDevExec</t>
+  </si>
+  <si>
+    <t>Influencevlog</t>
   </si>
 </sst>
 </file>
@@ -671,24 +671,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123123</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>123123</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="D2">
         <v>1000</v>
@@ -916,7 +916,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -946,10 +946,10 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
         <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
       </c>
       <c r="E2">
         <v>33</v>
@@ -996,7 +996,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1046,10 +1046,10 @@
         <v>123123</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -1125,7 +1125,7 @@
         <v>123123</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -1171,7 +1171,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1206,7 +1206,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2">
         <v>141574157</v>
@@ -1308,7 +1308,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1465,7 +1465,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -1517,7 +1517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27B0842-E8E0-4325-8362-2AAD84BEC5F2}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1545,7 +1545,7 @@
         <v>123123</v>
       </c>
       <c r="C2">
-        <v>2325</v>
+        <v>2324</v>
       </c>
     </row>
   </sheetData>
@@ -1748,8 +1748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B39ECD2-D8D8-48F8-8247-F45FB686BADE}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1786,7 +1786,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="101" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1834,7 +1834,7 @@
         <v>40</v>
       </c>
       <c r="G2">
-        <v>2400</v>
+        <v>2500</v>
       </c>
     </row>
   </sheetData>
@@ -1847,7 +1847,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1871,7 +1871,7 @@
         <v>123123</v>
       </c>
       <c r="C2" s="3">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2001,7 +2001,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2030,12 +2030,12 @@
       <c r="B2">
         <v>123123</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="3">
+        <v>195</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="3">
-        <v>195</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/qalegend/src/main/resources/Data/Logindata.xlsx
+++ b/qalegend/src/main/resources/Data/Logindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arath\git\qalegend\qalegend\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D8119D-7D1D-41A2-BEC8-EE41CADADEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691F48A2-B608-4A40-BEC7-E8FDF1137E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="25" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testCase31" sheetId="32" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="72">
   <si>
     <t>uname</t>
   </si>
@@ -147,9 +147,6 @@
     <t>search</t>
   </si>
   <si>
-    <t>sgst</t>
-  </si>
-  <si>
     <t>cgst</t>
   </si>
   <si>
@@ -258,9 +255,6 @@
     <t>Demo Company (BL0001)</t>
   </si>
   <si>
-    <t>DeepAli</t>
-  </si>
-  <si>
     <t>RajTax123</t>
   </si>
   <si>
@@ -274,6 +268,9 @@
   </si>
   <si>
     <t>Influencevlog</t>
+  </si>
+  <si>
+    <t>Valuest</t>
   </si>
 </sst>
 </file>
@@ -671,24 +668,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123123</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>123123</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="D2">
         <v>1000</v>
@@ -946,10 +943,10 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2">
         <v>33</v>
@@ -965,7 +962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405E5D4C-D4EA-4082-AFDB-B0C3CDAAF266}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -982,11 +979,11 @@
         <v>26</v>
       </c>
       <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -996,13 +993,13 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1035,7 +1032,7 @@
         <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1046,10 +1043,10 @@
         <v>123123</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -1088,7 +1085,7 @@
         <v>123123</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1125,7 +1122,7 @@
         <v>123123</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -1192,11 +1189,11 @@
         <v>26</v>
       </c>
       <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1206,7 +1203,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2">
         <v>141574157</v>
@@ -1245,14 +1242,14 @@
         <v>29</v>
       </c>
       <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1262,16 +1259,16 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1308,7 +1305,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1345,7 +1342,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1382,7 +1379,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1435,7 +1432,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1465,7 +1462,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -1600,7 +1597,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1649,25 +1646,25 @@
         <v>26</v>
       </c>
       <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
         <v>35</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
       </c>
       <c r="F1" t="s">
         <v>29</v>
       </c>
       <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1678,7 +1675,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D2">
         <v>159159478</v>
@@ -1687,16 +1684,16 @@
         <v>2000</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2">
         <v>100</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J2">
         <v>1900</v>
@@ -1736,7 +1733,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1748,7 +1745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B39ECD2-D8D8-48F8-8247-F45FB686BADE}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
@@ -1802,16 +1799,16 @@
         <v>29</v>
       </c>
       <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" t="s">
-        <v>39</v>
-      </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1822,16 +1819,16 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2">
         <v>2500</v>
@@ -1908,7 +1905,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1937,21 +1934,21 @@
         <v>29</v>
       </c>
       <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>123123</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1988,7 +1985,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2034,7 +2031,7 @@
         <v>195</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/qalegend/src/main/resources/Data/Logindata.xlsx
+++ b/qalegend/src/main/resources/Data/Logindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arath\git\qalegend\qalegend\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691F48A2-B608-4A40-BEC7-E8FDF1137E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A6F1A9-CD11-4079-A0DC-A1C0A596D8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="25" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testCase31" sheetId="32" r:id="rId1"/>
@@ -255,22 +255,22 @@
     <t>Demo Company (BL0001)</t>
   </si>
   <si>
-    <t>RajTax123</t>
-  </si>
-  <si>
     <t>NewBRole</t>
   </si>
   <si>
-    <t>Balance1</t>
-  </si>
-  <si>
-    <t>BusinessDevExec</t>
-  </si>
-  <si>
-    <t>Influencevlog</t>
-  </si>
-  <si>
-    <t>Valuest</t>
+    <t>Balance2</t>
+  </si>
+  <si>
+    <t>Valuest1</t>
+  </si>
+  <si>
+    <t>BusinessDevExecAgency12</t>
+  </si>
+  <si>
+    <t>Influencevlog1</t>
+  </si>
+  <si>
+    <t>RajTax2001</t>
   </si>
 </sst>
 </file>
@@ -943,10 +943,10 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
         <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>55</v>
       </c>
       <c r="E2">
         <v>33</v>
@@ -962,7 +962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405E5D4C-D4EA-4082-AFDB-B0C3CDAAF266}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -993,7 +993,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1043,10 +1043,10 @@
         <v>123123</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -1098,7 +1098,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1168,7 +1168,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1305,7 +1305,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1431,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C26DB1-78E5-4D11-A146-A1FA27A29533}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1462,7 +1462,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -1542,7 +1542,7 @@
         <v>123123</v>
       </c>
       <c r="C2">
-        <v>2324</v>
+        <v>2326</v>
       </c>
     </row>
   </sheetData>
@@ -1627,7 +1627,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1675,7 +1675,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2">
         <v>159159478</v>
@@ -1684,7 +1684,7 @@
         <v>2000</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
@@ -1746,7 +1746,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1783,7 +1783,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="101" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1831,7 +1831,7 @@
         <v>39</v>
       </c>
       <c r="G2">
-        <v>2500</v>
+        <v>2600</v>
       </c>
     </row>
   </sheetData>
@@ -1844,7 +1844,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1868,7 +1868,7 @@
         <v>123123</v>
       </c>
       <c r="C2" s="3">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1998,7 +1998,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2027,12 +2027,12 @@
       <c r="B2">
         <v>123123</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="3">
         <v>195</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>58</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/qalegend/src/main/resources/Data/Logindata.xlsx
+++ b/qalegend/src/main/resources/Data/Logindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arath\git\qalegend\qalegend\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A6F1A9-CD11-4079-A0DC-A1C0A596D8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6951F94-33F4-41FA-BDB4-B19C61CEAAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="25" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testCase31" sheetId="32" r:id="rId1"/>
@@ -258,19 +258,19 @@
     <t>NewBRole</t>
   </si>
   <si>
-    <t>Balance2</t>
-  </si>
-  <si>
-    <t>Valuest1</t>
-  </si>
-  <si>
-    <t>BusinessDevExecAgency12</t>
-  </si>
-  <si>
-    <t>Influencevlog1</t>
-  </si>
-  <si>
-    <t>RajTax2001</t>
+    <t>RajTax2002</t>
+  </si>
+  <si>
+    <t>Influencevlog12</t>
+  </si>
+  <si>
+    <t>CMDROClub</t>
+  </si>
+  <si>
+    <t>TaxGroupCher</t>
+  </si>
+  <si>
+    <t>Balance3</t>
   </si>
 </sst>
 </file>
@@ -913,7 +913,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -943,10 +943,10 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
         <v>55</v>
-      </c>
-      <c r="D2" t="s">
-        <v>60</v>
       </c>
       <c r="E2">
         <v>33</v>
@@ -993,7 +993,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1098,7 +1098,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1168,7 +1168,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1203,7 +1203,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D2">
         <v>141574157</v>
@@ -1431,7 +1431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C26DB1-78E5-4D11-A146-A1FA27A29533}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1462,7 +1462,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -1542,7 +1542,7 @@
         <v>123123</v>
       </c>
       <c r="C2">
-        <v>2326</v>
+        <v>2327</v>
       </c>
     </row>
   </sheetData>
@@ -1626,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14785DCB-D215-43AD-9F00-A670C9DF8DB8}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1675,7 +1675,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D2">
         <v>159159478</v>
@@ -1684,7 +1684,7 @@
         <v>2000</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
@@ -1831,7 +1831,7 @@
         <v>39</v>
       </c>
       <c r="G2">
-        <v>2600</v>
+        <v>2800</v>
       </c>
     </row>
   </sheetData>
@@ -1841,10 +1841,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34FE1C2-3CBD-47A2-A55A-FC998FFAC2CA}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1869,6 +1869,11 @@
       </c>
       <c r="C2" s="3">
         <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -1998,7 +2003,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2027,12 +2032,12 @@
       <c r="B2">
         <v>123123</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="3">
+        <v>195</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="3">
-        <v>195</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/qalegend/src/main/resources/Data/Logindata.xlsx
+++ b/qalegend/src/main/resources/Data/Logindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arath\git\qalegend\qalegend\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6951F94-33F4-41FA-BDB4-B19C61CEAAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664ADC3C-300E-4E90-A4DE-78E462145AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="25" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testCase31" sheetId="32" r:id="rId1"/>
@@ -258,19 +258,19 @@
     <t>NewBRole</t>
   </si>
   <si>
-    <t>RajTax2002</t>
-  </si>
-  <si>
-    <t>Influencevlog12</t>
-  </si>
-  <si>
-    <t>CMDROClub</t>
-  </si>
-  <si>
-    <t>TaxGroupCher</t>
-  </si>
-  <si>
-    <t>Balance3</t>
+    <t>Balance4</t>
+  </si>
+  <si>
+    <t>TaxGroupCher12</t>
+  </si>
+  <si>
+    <t>KLNIACMD</t>
+  </si>
+  <si>
+    <t>3influ</t>
+  </si>
+  <si>
+    <t>RajTax2003</t>
   </si>
 </sst>
 </file>
@@ -913,7 +913,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -943,10 +943,10 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
         <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>55</v>
       </c>
       <c r="E2">
         <v>33</v>
@@ -993,7 +993,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1043,10 +1043,10 @@
         <v>123123</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -1168,7 +1168,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1203,7 +1203,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2">
         <v>141574157</v>
@@ -1462,7 +1462,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -1542,7 +1542,7 @@
         <v>123123</v>
       </c>
       <c r="C2">
-        <v>2327</v>
+        <v>2359</v>
       </c>
     </row>
   </sheetData>
@@ -1626,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14785DCB-D215-43AD-9F00-A670C9DF8DB8}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1675,7 +1675,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D2">
         <v>159159478</v>
@@ -1684,7 +1684,7 @@
         <v>2000</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
@@ -1745,7 +1745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B39ECD2-D8D8-48F8-8247-F45FB686BADE}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -1831,7 +1831,7 @@
         <v>39</v>
       </c>
       <c r="G2">
-        <v>2800</v>
+        <v>2900</v>
       </c>
     </row>
   </sheetData>
@@ -1844,7 +1844,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1868,7 +1868,7 @@
         <v>123123</v>
       </c>
       <c r="C2" s="3">
-        <v>191</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.3">
@@ -2003,7 +2003,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2032,12 +2032,12 @@
       <c r="B2">
         <v>123123</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="3">
         <v>195</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>58</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/qalegend/src/main/resources/Data/Logindata.xlsx
+++ b/qalegend/src/main/resources/Data/Logindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arath\git\qalegend\qalegend\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664ADC3C-300E-4E90-A4DE-78E462145AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87738106-DB79-4B6B-A244-7B4F4BF506BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="25" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testCase31" sheetId="32" r:id="rId1"/>
@@ -258,19 +258,19 @@
     <t>NewBRole</t>
   </si>
   <si>
-    <t>Balance4</t>
-  </si>
-  <si>
-    <t>TaxGroupCher12</t>
-  </si>
-  <si>
-    <t>KLNIACMD</t>
-  </si>
-  <si>
-    <t>3influ</t>
-  </si>
-  <si>
-    <t>RajTax2003</t>
+    <t>RajTax2004</t>
+  </si>
+  <si>
+    <t>100influ</t>
+  </si>
+  <si>
+    <t>HR@323434</t>
+  </si>
+  <si>
+    <t>TaxGroupCher100</t>
+  </si>
+  <si>
+    <t>Balance5</t>
   </si>
 </sst>
 </file>
@@ -943,10 +943,10 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
         <v>55</v>
-      </c>
-      <c r="D2" t="s">
-        <v>60</v>
       </c>
       <c r="E2">
         <v>33</v>
@@ -993,7 +993,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1043,10 +1043,10 @@
         <v>123123</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -1098,7 +1098,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1121,7 +1121,7 @@
       <c r="B2">
         <v>123123</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D2" s="4"/>
@@ -1136,7 +1136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1168,7 +1168,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1203,7 +1203,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D2">
         <v>141574157</v>
@@ -1462,7 +1462,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -1542,7 +1542,7 @@
         <v>123123</v>
       </c>
       <c r="C2">
-        <v>2359</v>
+        <v>2360</v>
       </c>
     </row>
   </sheetData>
@@ -1627,7 +1627,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1675,7 +1675,7 @@
         <v>123123</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D2">
         <v>159159478</v>
@@ -1684,7 +1684,7 @@
         <v>2000</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
@@ -1745,8 +1745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B39ECD2-D8D8-48F8-8247-F45FB686BADE}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1831,7 +1831,7 @@
         <v>39</v>
       </c>
       <c r="G2">
-        <v>2900</v>
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
@@ -1841,10 +1841,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34FE1C2-3CBD-47A2-A55A-FC998FFAC2CA}">
-  <dimension ref="A1:J17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1869,11 +1869,6 @@
       </c>
       <c r="C2" s="3">
         <v>293</v>
-      </c>
-    </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J17">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2032,12 +2027,12 @@
       <c r="B2">
         <v>123123</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="3">
+        <v>195</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="3">
-        <v>195</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
